--- a/data/Simulations/PT1/Market Data/PT1_market_data_2020.xlsx
+++ b/data/Simulations/PT1/Market Data/PT1_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D523A6-866D-4270-A512-302DB65DB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07026B-5844-42F4-B97C-A028ACE65D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1077,6 +1077,7 @@
           <cell r="L4">
             <v>44</v>
           </cell>
+          <cell r="M4"/>
           <cell r="N4">
             <v>46</v>
           </cell>
@@ -5125,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>16.612500000000001</v>
       </c>
       <c r="C3" s="2">
@@ -5133,19 +5134,19 @@
         <v>31</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="H3" s="2">
@@ -5165,7 +5166,7 @@
         <v>24.01</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.86</v>
       </c>
       <c r="M3" s="2">
@@ -5181,11 +5182,11 @@
         <v>53</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R3" s="2">
@@ -5201,7 +5202,7 @@
         <v>53</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.107500000000002</v>
       </c>
       <c r="V3" s="2">
@@ -5375,24 +5376,24 @@
         <v>55.2</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.61</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.406666666666666</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.13</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>34.58</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.87</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>21.783333333333331</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.87</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>21.783333333333331</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.87</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26.493333333333336</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
@@ -5407,8 +5408,8 @@
         <v>22.01</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.61</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.41</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>

--- a/data/Simulations/PT1/Market Data/PT1_market_data_2020.xlsx
+++ b/data/Simulations/PT1/Market Data/PT1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07026B-5844-42F4-B97C-A028ACE65D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB65B6-AC9A-4FF2-AB9A-6A8D2FAD63D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,9 @@
     <sheet name="Csr, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId5"/>
-    <sheet name="Cp, Summer" sheetId="6" r:id="rId6"/>
-    <sheet name="Csr, Summer" sheetId="7" r:id="rId7"/>
-    <sheet name="Ctr_up, Summer" sheetId="8" r:id="rId8"/>
-    <sheet name="Ctr_down, Summer" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
@@ -1077,7 +1072,6 @@
           <cell r="L4">
             <v>44</v>
           </cell>
-          <cell r="M4"/>
           <cell r="N4">
             <v>46</v>
           </cell>
@@ -1637,1167 +1631,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Energy, Summer"/>
-      <sheetName val="Secondary Reserve, Summer"/>
-      <sheetName val="Tertiary Reserve Up, Summer"/>
-      <sheetName val="Tertiary Reserve Down, Summer"/>
-      <sheetName val="Energy, Winter"/>
-      <sheetName val="Secondary Reserve, Winter"/>
-      <sheetName val="Tertiary Reserve Up, Winter"/>
-      <sheetName val="Tertiary Reserve Down, Winter"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>11.09</v>
-          </cell>
-          <cell r="C2">
-            <v>18.989999999999998</v>
-          </cell>
-          <cell r="D2">
-            <v>10.62</v>
-          </cell>
-          <cell r="E2">
-            <v>10.62</v>
-          </cell>
-          <cell r="F2">
-            <v>10.62</v>
-          </cell>
-          <cell r="G2">
-            <v>10.62</v>
-          </cell>
-          <cell r="H2">
-            <v>10.42</v>
-          </cell>
-          <cell r="I2">
-            <v>6.72</v>
-          </cell>
-          <cell r="J2">
-            <v>6.96</v>
-          </cell>
-          <cell r="K2">
-            <v>7.46</v>
-          </cell>
-          <cell r="L2">
-            <v>10.48</v>
-          </cell>
-          <cell r="M2">
-            <v>9.4</v>
-          </cell>
-          <cell r="N2">
-            <v>8.4600000000000009</v>
-          </cell>
-          <cell r="O2">
-            <v>8.6300000000000008</v>
-          </cell>
-          <cell r="P2">
-            <v>8.4600000000000009</v>
-          </cell>
-          <cell r="Q2">
-            <v>10.89</v>
-          </cell>
-          <cell r="R2">
-            <v>9.8699999999999992</v>
-          </cell>
-          <cell r="S2">
-            <v>8.06</v>
-          </cell>
-          <cell r="T2">
-            <v>8.06</v>
-          </cell>
-          <cell r="U2">
-            <v>8.75</v>
-          </cell>
-          <cell r="V2">
-            <v>6.17</v>
-          </cell>
-          <cell r="W2">
-            <v>6.6</v>
-          </cell>
-          <cell r="X2">
-            <v>5.72</v>
-          </cell>
-          <cell r="Y2">
-            <v>10.26</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>11.27</v>
-          </cell>
-          <cell r="C3">
-            <v>12.24</v>
-          </cell>
-          <cell r="D3">
-            <v>8.3699999999999992</v>
-          </cell>
-          <cell r="E3">
-            <v>8.5399999999999991</v>
-          </cell>
-          <cell r="F3">
-            <v>8.84</v>
-          </cell>
-          <cell r="G3">
-            <v>8.93</v>
-          </cell>
-          <cell r="H3">
-            <v>17.93</v>
-          </cell>
-          <cell r="I3">
-            <v>15.6</v>
-          </cell>
-          <cell r="J3">
-            <v>9.8800000000000008</v>
-          </cell>
-          <cell r="K3">
-            <v>9.6300000000000008</v>
-          </cell>
-          <cell r="L3">
-            <v>7.71</v>
-          </cell>
-          <cell r="M3">
-            <v>7.97</v>
-          </cell>
-          <cell r="N3">
-            <v>9.08</v>
-          </cell>
-          <cell r="O3">
-            <v>7.13</v>
-          </cell>
-          <cell r="P3">
-            <v>7.4</v>
-          </cell>
-          <cell r="Q3">
-            <v>7.84</v>
-          </cell>
-          <cell r="R3">
-            <v>7.6</v>
-          </cell>
-          <cell r="S3">
-            <v>5.7</v>
-          </cell>
-          <cell r="T3">
-            <v>4.8499999999999996</v>
-          </cell>
-          <cell r="U3">
-            <v>4.2300000000000004</v>
-          </cell>
-          <cell r="V3">
-            <v>2.38</v>
-          </cell>
-          <cell r="W3">
-            <v>2.8</v>
-          </cell>
-          <cell r="X3">
-            <v>2.09</v>
-          </cell>
-          <cell r="Y3">
-            <v>12.33</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>6.52</v>
-          </cell>
-          <cell r="C4">
-            <v>10.56</v>
-          </cell>
-          <cell r="D4">
-            <v>5.92</v>
-          </cell>
-          <cell r="E4">
-            <v>6.15</v>
-          </cell>
-          <cell r="F4">
-            <v>6.79</v>
-          </cell>
-          <cell r="G4">
-            <v>6.65</v>
-          </cell>
-          <cell r="H4">
-            <v>10</v>
-          </cell>
-          <cell r="I4">
-            <v>10.19</v>
-          </cell>
-          <cell r="J4">
-            <v>9.76</v>
-          </cell>
-          <cell r="K4">
-            <v>8.0500000000000007</v>
-          </cell>
-          <cell r="L4">
-            <v>8.66</v>
-          </cell>
-          <cell r="M4">
-            <v>10</v>
-          </cell>
-          <cell r="N4">
-            <v>7.8</v>
-          </cell>
-          <cell r="O4">
-            <v>5.82</v>
-          </cell>
-          <cell r="P4">
-            <v>6.56</v>
-          </cell>
-          <cell r="Q4">
-            <v>8.0399999999999991</v>
-          </cell>
-          <cell r="R4">
-            <v>7.63</v>
-          </cell>
-          <cell r="S4">
-            <v>8.42</v>
-          </cell>
-          <cell r="T4">
-            <v>4.66</v>
-          </cell>
-          <cell r="U4">
-            <v>4.32</v>
-          </cell>
-          <cell r="V4">
-            <v>2.81</v>
-          </cell>
-          <cell r="W4">
-            <v>2.81</v>
-          </cell>
-          <cell r="X4">
-            <v>3.33</v>
-          </cell>
-          <cell r="Y4">
-            <v>8.9700000000000006</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>5.88</v>
-          </cell>
-          <cell r="C5">
-            <v>8.98</v>
-          </cell>
-          <cell r="D5">
-            <v>7.64</v>
-          </cell>
-          <cell r="E5">
-            <v>7.72</v>
-          </cell>
-          <cell r="F5">
-            <v>7.64</v>
-          </cell>
-          <cell r="G5">
-            <v>7.72</v>
-          </cell>
-          <cell r="H5">
-            <v>8.23</v>
-          </cell>
-          <cell r="I5">
-            <v>7.19</v>
-          </cell>
-          <cell r="J5">
-            <v>6.72</v>
-          </cell>
-          <cell r="K5">
-            <v>6.56</v>
-          </cell>
-          <cell r="L5">
-            <v>5.75</v>
-          </cell>
-          <cell r="M5">
-            <v>4.9400000000000004</v>
-          </cell>
-          <cell r="N5">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="O5">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="P5">
-            <v>6.11</v>
-          </cell>
-          <cell r="Q5">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="R5">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="S5">
-            <v>4.66</v>
-          </cell>
-          <cell r="T5">
-            <v>5.58</v>
-          </cell>
-          <cell r="U5">
-            <v>5.56</v>
-          </cell>
-          <cell r="V5">
-            <v>5.09</v>
-          </cell>
-          <cell r="W5">
-            <v>4.33</v>
-          </cell>
-          <cell r="X5">
-            <v>4.62</v>
-          </cell>
-          <cell r="Y5">
-            <v>6.95</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>7.58</v>
-          </cell>
-          <cell r="C6">
-            <v>9.4499999999999993</v>
-          </cell>
-          <cell r="D6">
-            <v>6.33</v>
-          </cell>
-          <cell r="E6">
-            <v>6.8</v>
-          </cell>
-          <cell r="F6">
-            <v>6.8</v>
-          </cell>
-          <cell r="G6">
-            <v>6.25</v>
-          </cell>
-          <cell r="H6">
-            <v>7.77</v>
-          </cell>
-          <cell r="I6">
-            <v>9.4499999999999993</v>
-          </cell>
-          <cell r="J6">
-            <v>9.2200000000000006</v>
-          </cell>
-          <cell r="K6">
-            <v>8.6199999999999992</v>
-          </cell>
-          <cell r="L6">
-            <v>7.09</v>
-          </cell>
-          <cell r="M6">
-            <v>6.43</v>
-          </cell>
-          <cell r="N6">
-            <v>5.85</v>
-          </cell>
-          <cell r="O6">
-            <v>6.44</v>
-          </cell>
-          <cell r="P6">
-            <v>6.79</v>
-          </cell>
-          <cell r="Q6">
-            <v>8.14</v>
-          </cell>
-          <cell r="R6">
-            <v>8.51</v>
-          </cell>
-          <cell r="S6">
-            <v>9.17</v>
-          </cell>
-          <cell r="T6">
-            <v>8.7899999999999991</v>
-          </cell>
-          <cell r="U6">
-            <v>7.6</v>
-          </cell>
-          <cell r="V6">
-            <v>6.29</v>
-          </cell>
-          <cell r="W6">
-            <v>6.62</v>
-          </cell>
-          <cell r="X6">
-            <v>6.53</v>
-          </cell>
-          <cell r="Y6">
-            <v>7.99</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>37</v>
-          </cell>
-          <cell r="C2">
-            <v>35.69</v>
-          </cell>
-          <cell r="D2">
-            <v>35.69</v>
-          </cell>
-          <cell r="E2">
-            <v>35.69</v>
-          </cell>
-          <cell r="F2">
-            <v>35.69</v>
-          </cell>
-          <cell r="G2">
-            <v>35.69</v>
-          </cell>
-          <cell r="H2">
-            <v>47.22</v>
-          </cell>
-          <cell r="I2">
-            <v>47.22</v>
-          </cell>
-          <cell r="J2">
-            <v>47.22</v>
-          </cell>
-          <cell r="K2">
-            <v>47.22</v>
-          </cell>
-          <cell r="L2">
-            <v>36</v>
-          </cell>
-          <cell r="M2">
-            <v>38.4</v>
-          </cell>
-          <cell r="N2">
-            <v>47.22</v>
-          </cell>
-          <cell r="O2">
-            <v>47.22</v>
-          </cell>
-          <cell r="P2">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.22</v>
-          </cell>
-          <cell r="R2">
-            <v>47.22</v>
-          </cell>
-          <cell r="S2">
-            <v>47.22</v>
-          </cell>
-          <cell r="T2">
-            <v>47.22</v>
-          </cell>
-          <cell r="U2">
-            <v>47.22</v>
-          </cell>
-          <cell r="V2">
-            <v>47.12</v>
-          </cell>
-          <cell r="W2">
-            <v>47.22</v>
-          </cell>
-          <cell r="X2">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.087499999999999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.22</v>
-          </cell>
-          <cell r="C3">
-            <v>47.22</v>
-          </cell>
-          <cell r="D3">
-            <v>47.22</v>
-          </cell>
-          <cell r="E3">
-            <v>36</v>
-          </cell>
-          <cell r="F3">
-            <v>35.69</v>
-          </cell>
-          <cell r="G3">
-            <v>35.69</v>
-          </cell>
-          <cell r="H3">
-            <v>35.69</v>
-          </cell>
-          <cell r="I3">
-            <v>47.22</v>
-          </cell>
-          <cell r="J3">
-            <v>47.22</v>
-          </cell>
-          <cell r="K3">
-            <v>47.22</v>
-          </cell>
-          <cell r="L3">
-            <v>47.22</v>
-          </cell>
-          <cell r="M3">
-            <v>47.22</v>
-          </cell>
-          <cell r="N3">
-            <v>47.22</v>
-          </cell>
-          <cell r="O3">
-            <v>47.22</v>
-          </cell>
-          <cell r="P3">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q3">
-            <v>47.22</v>
-          </cell>
-          <cell r="R3">
-            <v>47.22</v>
-          </cell>
-          <cell r="S3">
-            <v>47.22</v>
-          </cell>
-          <cell r="T3">
-            <v>47.22</v>
-          </cell>
-          <cell r="U3">
-            <v>47.22</v>
-          </cell>
-          <cell r="V3">
-            <v>47.22</v>
-          </cell>
-          <cell r="W3">
-            <v>47.22</v>
-          </cell>
-          <cell r="X3">
-            <v>36</v>
-          </cell>
-          <cell r="Y3">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>36.4</v>
-          </cell>
-          <cell r="C4">
-            <v>36.4</v>
-          </cell>
-          <cell r="D4">
-            <v>35.69</v>
-          </cell>
-          <cell r="E4">
-            <v>35.69</v>
-          </cell>
-          <cell r="F4">
-            <v>35.69</v>
-          </cell>
-          <cell r="G4">
-            <v>35.69</v>
-          </cell>
-          <cell r="H4">
-            <v>35.69</v>
-          </cell>
-          <cell r="I4">
-            <v>47.22</v>
-          </cell>
-          <cell r="J4">
-            <v>36.4</v>
-          </cell>
-          <cell r="K4">
-            <v>36.4</v>
-          </cell>
-          <cell r="L4">
-            <v>47.22</v>
-          </cell>
-          <cell r="M4">
-            <v>47.22</v>
-          </cell>
-          <cell r="N4">
-            <v>42</v>
-          </cell>
-          <cell r="O4">
-            <v>38</v>
-          </cell>
-          <cell r="P4">
-            <v>38</v>
-          </cell>
-          <cell r="Q4">
-            <v>47.22</v>
-          </cell>
-          <cell r="R4">
-            <v>47.22</v>
-          </cell>
-          <cell r="S4">
-            <v>47.22</v>
-          </cell>
-          <cell r="T4">
-            <v>47.22</v>
-          </cell>
-          <cell r="U4">
-            <v>47.22</v>
-          </cell>
-          <cell r="V4">
-            <v>47.22</v>
-          </cell>
-          <cell r="W4">
-            <v>47.22</v>
-          </cell>
-          <cell r="X4">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y4">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>47.22</v>
-          </cell>
-          <cell r="C5">
-            <v>37.4</v>
-          </cell>
-          <cell r="D5">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="E5">
-            <v>37.4</v>
-          </cell>
-          <cell r="F5">
-            <v>35.69</v>
-          </cell>
-          <cell r="G5">
-            <v>37.4</v>
-          </cell>
-          <cell r="H5">
-            <v>37.4</v>
-          </cell>
-          <cell r="I5">
-            <v>37.4</v>
-          </cell>
-          <cell r="J5">
-            <v>37.4</v>
-          </cell>
-          <cell r="K5">
-            <v>38</v>
-          </cell>
-          <cell r="L5">
-            <v>38</v>
-          </cell>
-          <cell r="M5">
-            <v>47.22</v>
-          </cell>
-          <cell r="N5">
-            <v>47.22</v>
-          </cell>
-          <cell r="O5">
-            <v>47.22</v>
-          </cell>
-          <cell r="P5">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q5">
-            <v>47.22</v>
-          </cell>
-          <cell r="R5">
-            <v>47.22</v>
-          </cell>
-          <cell r="S5">
-            <v>47.22</v>
-          </cell>
-          <cell r="T5">
-            <v>47.22</v>
-          </cell>
-          <cell r="U5">
-            <v>47.22</v>
-          </cell>
-          <cell r="V5">
-            <v>47.22</v>
-          </cell>
-          <cell r="W5">
-            <v>95</v>
-          </cell>
-          <cell r="X5">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y5">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>46.66</v>
-          </cell>
-          <cell r="C6">
-            <v>46.69</v>
-          </cell>
-          <cell r="D6">
-            <v>37.4</v>
-          </cell>
-          <cell r="E6">
-            <v>37.4</v>
-          </cell>
-          <cell r="F6">
-            <v>37.4</v>
-          </cell>
-          <cell r="G6">
-            <v>37.4</v>
-          </cell>
-          <cell r="H6">
-            <v>39</v>
-          </cell>
-          <cell r="I6">
-            <v>64.64</v>
-          </cell>
-          <cell r="J6">
-            <v>37.4</v>
-          </cell>
-          <cell r="K6">
-            <v>37.4</v>
-          </cell>
-          <cell r="L6">
-            <v>42.11</v>
-          </cell>
-          <cell r="M6">
-            <v>37.4</v>
-          </cell>
-          <cell r="N6">
-            <v>46.69</v>
-          </cell>
-          <cell r="O6">
-            <v>46.69</v>
-          </cell>
-          <cell r="P6">
-            <v>46.69</v>
-          </cell>
-          <cell r="Q6">
-            <v>46.69</v>
-          </cell>
-          <cell r="R6">
-            <v>46.69</v>
-          </cell>
-          <cell r="S6">
-            <v>46.69</v>
-          </cell>
-          <cell r="T6">
-            <v>46.69</v>
-          </cell>
-          <cell r="U6">
-            <v>46.69</v>
-          </cell>
-          <cell r="V6">
-            <v>46.69</v>
-          </cell>
-          <cell r="W6">
-            <v>46.58</v>
-          </cell>
-          <cell r="X6">
-            <v>46.56</v>
-          </cell>
-          <cell r="Y6">
-            <v>46.69</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>15.6</v>
-          </cell>
-          <cell r="C2">
-            <v>43.2</v>
-          </cell>
-          <cell r="D2">
-            <v>33.605000000000004</v>
-          </cell>
-          <cell r="E2">
-            <v>35.513333333333328</v>
-          </cell>
-          <cell r="F2">
-            <v>39.4</v>
-          </cell>
-          <cell r="G2">
-            <v>30.71</v>
-          </cell>
-          <cell r="H2">
-            <v>24.515000000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>27.98</v>
-          </cell>
-          <cell r="J2">
-            <v>27.98</v>
-          </cell>
-          <cell r="K2">
-            <v>23.7575</v>
-          </cell>
-          <cell r="L2">
-            <v>26</v>
-          </cell>
-          <cell r="M2">
-            <v>41.627499999999998</v>
-          </cell>
-          <cell r="N2">
-            <v>52.5</v>
-          </cell>
-          <cell r="O2">
-            <v>50.4</v>
-          </cell>
-          <cell r="P2">
-            <v>50.4</v>
-          </cell>
-          <cell r="Q2">
-            <v>50.4</v>
-          </cell>
-          <cell r="R2">
-            <v>50.4</v>
-          </cell>
-          <cell r="S2">
-            <v>50.4</v>
-          </cell>
-          <cell r="T2">
-            <v>27.98</v>
-          </cell>
-          <cell r="U2">
-            <v>50.4</v>
-          </cell>
-          <cell r="V2">
-            <v>50.4</v>
-          </cell>
-          <cell r="W2">
-            <v>27.98</v>
-          </cell>
-          <cell r="X2">
-            <v>22.02</v>
-          </cell>
-          <cell r="Y2">
-            <v>50.4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>50.4</v>
-          </cell>
-          <cell r="C3">
-            <v>26</v>
-          </cell>
-          <cell r="D3">
-            <v>26</v>
-          </cell>
-          <cell r="E3">
-            <v>27.74</v>
-          </cell>
-          <cell r="F3">
-            <v>33.606666666666662</v>
-          </cell>
-          <cell r="G3">
-            <v>30.71</v>
-          </cell>
-          <cell r="H3">
-            <v>24.515000000000001</v>
-          </cell>
-          <cell r="I3">
-            <v>22.02</v>
-          </cell>
-          <cell r="J3">
-            <v>24.7575</v>
-          </cell>
-          <cell r="K3">
-            <v>27.98</v>
-          </cell>
-          <cell r="L3">
-            <v>52.5</v>
-          </cell>
-          <cell r="M3">
-            <v>52.5</v>
-          </cell>
-          <cell r="N3">
-            <v>52.5</v>
-          </cell>
-          <cell r="O3">
-            <v>50.4</v>
-          </cell>
-          <cell r="P3">
-            <v>50.4</v>
-          </cell>
-          <cell r="Q3">
-            <v>50.4</v>
-          </cell>
-          <cell r="R3">
-            <v>50.4</v>
-          </cell>
-          <cell r="S3">
-            <v>29.98</v>
-          </cell>
-          <cell r="T3">
-            <v>27.98</v>
-          </cell>
-          <cell r="U3">
-            <v>27.98</v>
-          </cell>
-          <cell r="V3">
-            <v>50.4</v>
-          </cell>
-          <cell r="W3">
-            <v>28</v>
-          </cell>
-          <cell r="X3">
-            <v>50.4</v>
-          </cell>
-          <cell r="Y3">
-            <v>50.4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>27.98</v>
-          </cell>
-          <cell r="C4">
-            <v>22.02</v>
-          </cell>
-          <cell r="D4">
-            <v>22.02</v>
-          </cell>
-          <cell r="E4">
-            <v>39.4</v>
-          </cell>
-          <cell r="F4">
-            <v>22.02</v>
-          </cell>
-          <cell r="G4">
-            <v>22.02</v>
-          </cell>
-          <cell r="H4">
-            <v>24.515000000000001</v>
-          </cell>
-          <cell r="I4">
-            <v>23.267499999999998</v>
-          </cell>
-          <cell r="J4">
-            <v>27.98</v>
-          </cell>
-          <cell r="K4">
-            <v>20.36</v>
-          </cell>
-          <cell r="L4">
-            <v>52.5</v>
-          </cell>
-          <cell r="M4">
-            <v>60</v>
-          </cell>
-          <cell r="N4">
-            <v>29.01</v>
-          </cell>
-          <cell r="O4">
-            <v>29.02</v>
-          </cell>
-          <cell r="P4">
-            <v>29.02</v>
-          </cell>
-          <cell r="Q4">
-            <v>50.4</v>
-          </cell>
-          <cell r="R4">
-            <v>50.4</v>
-          </cell>
-          <cell r="S4">
-            <v>50.4</v>
-          </cell>
-          <cell r="T4">
-            <v>50.4</v>
-          </cell>
-          <cell r="U4">
-            <v>50.4</v>
-          </cell>
-          <cell r="V4">
-            <v>30</v>
-          </cell>
-          <cell r="W4">
-            <v>50.4</v>
-          </cell>
-          <cell r="X4">
-            <v>27.98</v>
-          </cell>
-          <cell r="Y4">
-            <v>22.02</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>50.4</v>
-          </cell>
-          <cell r="C5">
-            <v>43.2</v>
-          </cell>
-          <cell r="D5">
-            <v>43.2</v>
-          </cell>
-          <cell r="E5">
-            <v>39.4</v>
-          </cell>
-          <cell r="F5">
-            <v>39.4</v>
-          </cell>
-          <cell r="G5">
-            <v>39.4</v>
-          </cell>
-          <cell r="H5">
-            <v>27.98</v>
-          </cell>
-          <cell r="I5">
-            <v>22.02</v>
-          </cell>
-          <cell r="J5">
-            <v>22.02</v>
-          </cell>
-          <cell r="K5">
-            <v>27.98</v>
-          </cell>
-          <cell r="L5">
-            <v>52.5</v>
-          </cell>
-          <cell r="M5">
-            <v>27.98</v>
-          </cell>
-          <cell r="N5">
-            <v>52.5</v>
-          </cell>
-          <cell r="O5">
-            <v>50.4</v>
-          </cell>
-          <cell r="P5">
-            <v>50.4</v>
-          </cell>
-          <cell r="Q5">
-            <v>27.98</v>
-          </cell>
-          <cell r="R5">
-            <v>50.4</v>
-          </cell>
-          <cell r="S5">
-            <v>50.4</v>
-          </cell>
-          <cell r="T5">
-            <v>50.4</v>
-          </cell>
-          <cell r="U5">
-            <v>50.4</v>
-          </cell>
-          <cell r="V5">
-            <v>50.4</v>
-          </cell>
-          <cell r="W5">
-            <v>50.4</v>
-          </cell>
-          <cell r="X5">
-            <v>50.4</v>
-          </cell>
-          <cell r="Y5">
-            <v>50.4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>50.4</v>
-          </cell>
-          <cell r="C6">
-            <v>18.71</v>
-          </cell>
-          <cell r="D6">
-            <v>43.2</v>
-          </cell>
-          <cell r="E6">
-            <v>35.513333333333328</v>
-          </cell>
-          <cell r="F6">
-            <v>33.606666666666662</v>
-          </cell>
-          <cell r="G6">
-            <v>30.71</v>
-          </cell>
-          <cell r="H6">
-            <v>21.05</v>
-          </cell>
-          <cell r="I6">
-            <v>21.05</v>
-          </cell>
-          <cell r="J6">
-            <v>21.05</v>
-          </cell>
-          <cell r="K6">
-            <v>18.71</v>
-          </cell>
-          <cell r="L6">
-            <v>18.71</v>
-          </cell>
-          <cell r="M6">
-            <v>26.03</v>
-          </cell>
-          <cell r="N6">
-            <v>52.5</v>
-          </cell>
-          <cell r="O6">
-            <v>45.055</v>
-          </cell>
-          <cell r="P6">
-            <v>50.4</v>
-          </cell>
-          <cell r="Q6">
-            <v>44.794999999999995</v>
-          </cell>
-          <cell r="R6">
-            <v>50.4</v>
-          </cell>
-          <cell r="S6">
-            <v>50.4</v>
-          </cell>
-          <cell r="T6">
-            <v>50.4</v>
-          </cell>
-          <cell r="U6">
-            <v>26.03</v>
-          </cell>
-          <cell r="V6">
-            <v>50.4</v>
-          </cell>
-          <cell r="W6">
-            <v>50.4</v>
-          </cell>
-          <cell r="X6">
-            <v>26.03</v>
-          </cell>
-          <cell r="Y6">
-            <v>50.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3068,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4937,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12992CFE-83F1-4576-AC00-4B8C55B0083F}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>16.612500000000001</v>
       </c>
       <c r="C3" s="2">
@@ -5134,19 +3967,19 @@
         <v>31</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="H3" s="2">
@@ -5166,7 +3999,7 @@
         <v>24.01</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.86</v>
       </c>
       <c r="M3" s="2">
@@ -5182,11 +4015,11 @@
         <v>53</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R3" s="2">
@@ -5202,7 +4035,7 @@
         <v>53</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.107500000000002</v>
       </c>
       <c r="V3" s="2">
@@ -5376,23 +4209,23 @@
         <v>55.2</v>
       </c>
       <c r="N5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.406666666666666</v>
       </c>
       <c r="O5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.58</v>
       </c>
       <c r="P5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.493333333333336</v>
       </c>
       <c r="S5" s="2">
@@ -5408,7 +4241,7 @@
         <v>22.01</v>
       </c>
       <c r="V5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.41</v>
       </c>
       <c r="W5" s="2">
@@ -5523,2421 +4356,6 @@
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51365E97-6E69-401A-9DFD-893A2C3FF085}">
-  <dimension ref="A1:Y6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y2" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y3" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y4" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y5" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y6" s="2" t="e">
-        <f>#REF!*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB008B8-ED0A-4A84-975C-A342158CCFB6}">
-  <dimension ref="A1:Y7"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!B2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.09</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!C2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.989999999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!D2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.62</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!E2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.62</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!F2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.62</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!G2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.62</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!H2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.42</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!I2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.72</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!J2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.96</v>
-      </c>
-      <c r="K2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!K2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.46</v>
-      </c>
-      <c r="L2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!L2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.48</v>
-      </c>
-      <c r="M2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!M2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4</v>
-      </c>
-      <c r="N2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!N2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="O2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!O2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="P2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!P2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Q2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.89</v>
-      </c>
-      <c r="R2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!R2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="S2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!S2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.06</v>
-      </c>
-      <c r="T2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!T2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.06</v>
-      </c>
-      <c r="U2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!U2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.75</v>
-      </c>
-      <c r="V2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!V2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.17</v>
-      </c>
-      <c r="W2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!W2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.6</v>
-      </c>
-      <c r="X2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!X2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.72</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Y2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!B3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.27</v>
-      </c>
-      <c r="C3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!C3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.24</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!D3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!E3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="F3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!F3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.84</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!G3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.93</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!H3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.93</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!I3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>15.6</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!J3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="K3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!K3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="L3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!L3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.71</v>
-      </c>
-      <c r="M3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!M3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.97</v>
-      </c>
-      <c r="N3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!N3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.08</v>
-      </c>
-      <c r="O3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!O3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.13</v>
-      </c>
-      <c r="P3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!P3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.4</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Q3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.84</v>
-      </c>
-      <c r="R3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!R3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6</v>
-      </c>
-      <c r="S3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!S3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.7</v>
-      </c>
-      <c r="T3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!T3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="U3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!U3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="V3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!V3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.38</v>
-      </c>
-      <c r="W3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!W3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.8</v>
-      </c>
-      <c r="X3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!X3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.09</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Y3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!B4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.52</v>
-      </c>
-      <c r="C4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!C4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.56</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!D4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.92</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!E4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.15</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!F4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.79</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!G4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.65</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!H4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!I4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.19</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!J4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.76</v>
-      </c>
-      <c r="K4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!K4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="L4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!L4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.66</v>
-      </c>
-      <c r="M4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!M4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10</v>
-      </c>
-      <c r="N4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!N4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.8</v>
-      </c>
-      <c r="O4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!O4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.82</v>
-      </c>
-      <c r="P4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!P4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.56</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Q4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="R4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!R4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.63</v>
-      </c>
-      <c r="S4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!S4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.42</v>
-      </c>
-      <c r="T4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!T4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.66</v>
-      </c>
-      <c r="U4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!U4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.32</v>
-      </c>
-      <c r="V4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!V4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.81</v>
-      </c>
-      <c r="W4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!W4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.81</v>
-      </c>
-      <c r="X4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!X4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.33</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Y4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9700000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!B5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.88</v>
-      </c>
-      <c r="C5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!C5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.98</v>
-      </c>
-      <c r="D5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!D5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.64</v>
-      </c>
-      <c r="E5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!E5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.72</v>
-      </c>
-      <c r="F5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!F5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.64</v>
-      </c>
-      <c r="G5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!G5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.72</v>
-      </c>
-      <c r="H5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!H5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.23</v>
-      </c>
-      <c r="I5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!I5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.19</v>
-      </c>
-      <c r="J5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!J5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.72</v>
-      </c>
-      <c r="K5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!K5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.56</v>
-      </c>
-      <c r="L5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!L5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.75</v>
-      </c>
-      <c r="M5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!M5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="N5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!N5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="O5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!O5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="P5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!P5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.11</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Q5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="R5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!R5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="S5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!S5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.66</v>
-      </c>
-      <c r="T5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!T5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.58</v>
-      </c>
-      <c r="U5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!U5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.56</v>
-      </c>
-      <c r="V5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!V5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.09</v>
-      </c>
-      <c r="W5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!W5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.33</v>
-      </c>
-      <c r="X5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!X5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.62</v>
-      </c>
-      <c r="Y5" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Y5*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!B6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.58</v>
-      </c>
-      <c r="C6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!C6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!D6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.33</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!E6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8</v>
-      </c>
-      <c r="F6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!F6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8</v>
-      </c>
-      <c r="G6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!G6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.25</v>
-      </c>
-      <c r="H6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!H6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.77</v>
-      </c>
-      <c r="I6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!I6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="J6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!J6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="K6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!K6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="L6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!L6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.09</v>
-      </c>
-      <c r="M6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!M6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.43</v>
-      </c>
-      <c r="N6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!N6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.85</v>
-      </c>
-      <c r="O6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!O6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.44</v>
-      </c>
-      <c r="P6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!P6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.79</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Q6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.14</v>
-      </c>
-      <c r="R6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!R6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.51</v>
-      </c>
-      <c r="S6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!S6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.17</v>
-      </c>
-      <c r="T6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!T6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="U6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!U6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6</v>
-      </c>
-      <c r="V6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!V6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.29</v>
-      </c>
-      <c r="W6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!W6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.62</v>
-      </c>
-      <c r="X6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!X6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.53</v>
-      </c>
-      <c r="Y6" s="2">
-        <f>'[2]Secondary Reserve, Summer'!Y6*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3DC1DB-E732-4F79-89B1-5F652B3EE8D7}">
-  <dimension ref="A1:Y6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!B2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!C2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!D2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!E2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!F2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!G2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!H2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!I2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!J2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="K2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!K2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="L2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!L2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
-      </c>
-      <c r="M2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!M2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38.4</v>
-      </c>
-      <c r="N2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!N2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="O2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!O2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="P2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!P2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Q2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="R2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!R2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="S2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!S2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="T2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!T2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="U2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!U2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="V2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!V2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.12</v>
-      </c>
-      <c r="W2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!W2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="X2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!X2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Y2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.087499999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!B3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="C3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!C3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!D3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!E3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
-      </c>
-      <c r="F3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!F3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!G3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!H3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!I3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!J3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="K3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!K3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="L3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!L3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="M3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!M3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="N3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!N3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="O3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!O3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="P3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!P3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Q3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="R3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!R3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="S3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!S3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="T3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!T3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="U3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!U3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="V3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!V3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="W3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!W3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="X3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!X3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Y3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!B4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
-      </c>
-      <c r="C4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!C4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!D4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!E4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!F4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!G4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!H4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!I4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!J4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
-      </c>
-      <c r="K4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!K4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
-      </c>
-      <c r="L4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!L4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="M4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!M4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="N4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!N4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>42</v>
-      </c>
-      <c r="O4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!O4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38</v>
-      </c>
-      <c r="P4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!P4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Q4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="R4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!R4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="S4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!S4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="T4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!T4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="U4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!U4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="V4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!V4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="W4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!W4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="X4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!X4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Y4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!B5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="C5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!C5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="D5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!D5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.040000000000006</v>
-      </c>
-      <c r="E5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!E5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="F5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!F5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>35.69</v>
-      </c>
-      <c r="G5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!G5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="H5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!H5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="I5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!I5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="J5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!J5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="K5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!K5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38</v>
-      </c>
-      <c r="L5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!L5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38</v>
-      </c>
-      <c r="M5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!M5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="N5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!N5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="O5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!O5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="P5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!P5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Q5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="R5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!R5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="S5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!S5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="T5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!T5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="U5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!U5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="V5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!V5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="W5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!W5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>95</v>
-      </c>
-      <c r="X5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!X5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-      <c r="Y5" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Y5*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!B6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.66</v>
-      </c>
-      <c r="C6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!C6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!D6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!E6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="F6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!F6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="G6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!G6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="H6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!H6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39</v>
-      </c>
-      <c r="I6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!I6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.64</v>
-      </c>
-      <c r="J6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!J6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="K6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!K6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="L6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!L6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>42.11</v>
-      </c>
-      <c r="M6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!M6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.4</v>
-      </c>
-      <c r="N6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!N6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="O6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!O6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="P6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!P6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Q6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="R6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!R6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="S6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!S6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="T6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!T6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="U6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!U6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="V6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!V6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-      <c r="W6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!W6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.58</v>
-      </c>
-      <c r="X6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!X6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.56</v>
-      </c>
-      <c r="Y6" s="2">
-        <f>'[2]Tertiary Reserve Up, Summer'!Y6*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06EB1E-49A0-417F-AD8B-905096775CB2}">
-  <dimension ref="A1:Y6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!B2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>15.6</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!C2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.2</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!D2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.605000000000004</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!E2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.513333333333328</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!F2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.4</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!G2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.71</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!H2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.515000000000001</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!I2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!J2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="K2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!K2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.7575</v>
-      </c>
-      <c r="L2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!L2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
-      </c>
-      <c r="M2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!M2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.627499999999998</v>
-      </c>
-      <c r="N2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!N2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
-      </c>
-      <c r="O2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!O2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="P2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!P2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Q2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="R2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!R2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="S2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!S2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="T2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!T2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="U2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!U2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="V2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!V2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="W2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!W2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="X2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!X2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Y2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!B3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="C3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!C3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!D3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!E3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.74</v>
-      </c>
-      <c r="F3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!F3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.606666666666662</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!G3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.71</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!H3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.515000000000001</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!I3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!J3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.7575</v>
-      </c>
-      <c r="K3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!K3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="L3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!L3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
-      </c>
-      <c r="M3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!M3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
-      </c>
-      <c r="N3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!N3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
-      </c>
-      <c r="O3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!O3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="P3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!P3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Q3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="R3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!R3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="S3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!S3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.98</v>
-      </c>
-      <c r="T3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!T3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="U3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!U3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="V3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!V3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="W3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!W3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28</v>
-      </c>
-      <c r="X3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!X3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Y3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!B4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="C4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!C4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!D4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!E4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.4</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!F4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!G4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!H4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.515000000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!I4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.267499999999998</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!J4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="K4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!K4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.36</v>
-      </c>
-      <c r="L4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!L4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
-      </c>
-      <c r="M4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!M4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60</v>
-      </c>
-      <c r="N4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!N4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.01</v>
-      </c>
-      <c r="O4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!O4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.02</v>
-      </c>
-      <c r="P4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!P4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.02</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Q4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="R4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!R4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="S4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!S4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="T4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!T4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="U4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!U4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="V4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!V4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30</v>
-      </c>
-      <c r="W4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!W4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="X4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!X4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Y4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!B5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="C5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!C5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.2</v>
-      </c>
-      <c r="D5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!D5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.2</v>
-      </c>
-      <c r="E5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!E5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.4</v>
-      </c>
-      <c r="F5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!F5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.4</v>
-      </c>
-      <c r="G5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!G5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.4</v>
-      </c>
-      <c r="H5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!H5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="I5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!I5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-      <c r="J5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!J5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.02</v>
-      </c>
-      <c r="K5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!K5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="L5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!L5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
-      </c>
-      <c r="M5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!M5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="N5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!N5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
-      </c>
-      <c r="O5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!O5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="P5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!P5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Q5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.98</v>
-      </c>
-      <c r="R5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!R5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="S5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!S5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="T5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!T5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="U5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!U5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="V5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!V5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="W5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!W5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="X5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!X5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="Y5" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Y5*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!B6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="C6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!C6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.71</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!D6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.2</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!E6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.513333333333328</v>
-      </c>
-      <c r="F6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!F6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.606666666666662</v>
-      </c>
-      <c r="G6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!G6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.71</v>
-      </c>
-      <c r="H6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!H6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.05</v>
-      </c>
-      <c r="I6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!I6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.05</v>
-      </c>
-      <c r="J6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!J6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.05</v>
-      </c>
-      <c r="K6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!K6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.71</v>
-      </c>
-      <c r="L6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!L6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.71</v>
-      </c>
-      <c r="M6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!M6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.03</v>
-      </c>
-      <c r="N6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!N6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.5</v>
-      </c>
-      <c r="O6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!O6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.055</v>
-      </c>
-      <c r="P6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!P6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Q6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>44.794999999999995</v>
-      </c>
-      <c r="R6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!R6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="S6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!S6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="T6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!T6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="U6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!U6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.03</v>
-      </c>
-      <c r="V6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!V6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="W6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!W6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
-      </c>
-      <c r="X6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!X6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.03</v>
-      </c>
-      <c r="Y6" s="2">
-        <f>'[2]Tertiary Reserve Down, Summer'!Y6*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/Simulations/PT1/Market Data/PT1_market_data_2020.xlsx
+++ b/data/Simulations/PT1/Market Data/PT1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB65B6-AC9A-4FF2-AB9A-6A8D2FAD63D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F07AB-E531-48EF-BCDB-FC424481B7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1072,6 +1072,7 @@
           <cell r="L4">
             <v>44</v>
           </cell>
+          <cell r="M4"/>
           <cell r="N4">
             <v>46</v>
           </cell>
@@ -1901,16 +1902,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1934,7 +1935,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1956,9 +1957,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>31.17</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2554,9 +2555,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3177,9 +3178,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>58.58</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>46.97</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3770,13 +3771,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12992CFE-83F1-4576-AC00-4B8C55B0083F}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3954,12 +3955,12 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>16.612500000000001</v>
       </c>
       <c r="C3" s="2">
@@ -3967,19 +3968,19 @@
         <v>31</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="H3" s="2">
@@ -3999,7 +4000,7 @@
         <v>24.01</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.86</v>
       </c>
       <c r="M3" s="2">
@@ -4015,11 +4016,11 @@
         <v>53</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R3" s="2">
@@ -4035,7 +4036,7 @@
         <v>53</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.107500000000002</v>
       </c>
       <c r="V3" s="2">
@@ -4055,7 +4056,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4209,23 +4210,23 @@
         <v>55.2</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.406666666666666</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.58</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.493333333333336</v>
       </c>
       <c r="S5" s="2">
@@ -4241,7 +4242,7 @@
         <v>22.01</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.41</v>
       </c>
       <c r="W5" s="2">
@@ -4257,7 +4258,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>

--- a/data/Simulations/PT1/Market Data/PT1_market_data_2020.xlsx
+++ b/data/Simulations/PT1/Market Data/PT1_market_data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F07AB-E531-48EF-BCDB-FC424481B7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E41DB7-99BF-46B3-8471-97EBE2CE46D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,13 @@
     <sheet name="Csr, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId5"/>
+    <sheet name="Cp, Summer" sheetId="6" r:id="rId6"/>
+    <sheet name="Csr, Summer" sheetId="7" r:id="rId7"/>
+    <sheet name="Ctr_up, Summer" sheetId="8" r:id="rId8"/>
+    <sheet name="Ctr_down, Summer" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
@@ -67,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,10 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +132,11 @@
       <sheetName val="Tertiary Reserve Up, Winter"/>
       <sheetName val="Tertiary Reserve Down, Winter"/>
       <sheetName val="Flexibility, Winter"/>
+      <sheetName val="Energy, Summer"/>
+      <sheetName val="Secondary Reserve, Summer"/>
+      <sheetName val="Tertiary Reserve Up, Summer"/>
+      <sheetName val="Tertiary Reserve Down, Summer"/>
+      <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1632,6 +1648,1495 @@
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>35.549999999999997</v>
+          </cell>
+          <cell r="C2">
+            <v>27.82</v>
+          </cell>
+          <cell r="D2">
+            <v>26.69</v>
+          </cell>
+          <cell r="E2">
+            <v>26</v>
+          </cell>
+          <cell r="F2">
+            <v>26</v>
+          </cell>
+          <cell r="G2">
+            <v>26.22</v>
+          </cell>
+          <cell r="H2">
+            <v>27.18</v>
+          </cell>
+          <cell r="I2">
+            <v>27.7</v>
+          </cell>
+          <cell r="J2">
+            <v>31.63</v>
+          </cell>
+          <cell r="K2">
+            <v>34.07</v>
+          </cell>
+          <cell r="L2">
+            <v>31.26</v>
+          </cell>
+          <cell r="M2">
+            <v>27.77</v>
+          </cell>
+          <cell r="N2">
+            <v>33</v>
+          </cell>
+          <cell r="O2">
+            <v>34.99</v>
+          </cell>
+          <cell r="P2">
+            <v>32.99</v>
+          </cell>
+          <cell r="Q2">
+            <v>33.53</v>
+          </cell>
+          <cell r="R2">
+            <v>34.07</v>
+          </cell>
+          <cell r="S2">
+            <v>32.57</v>
+          </cell>
+          <cell r="T2">
+            <v>27.77</v>
+          </cell>
+          <cell r="U2">
+            <v>29.36</v>
+          </cell>
+          <cell r="V2">
+            <v>34.07</v>
+          </cell>
+          <cell r="W2">
+            <v>37.11</v>
+          </cell>
+          <cell r="X2">
+            <v>36.92</v>
+          </cell>
+          <cell r="Y2">
+            <v>31.14</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>34.47</v>
+          </cell>
+          <cell r="C3">
+            <v>29.79</v>
+          </cell>
+          <cell r="D3">
+            <v>28.16</v>
+          </cell>
+          <cell r="E3">
+            <v>27.74</v>
+          </cell>
+          <cell r="F3">
+            <v>27</v>
+          </cell>
+          <cell r="G3">
+            <v>26.77</v>
+          </cell>
+          <cell r="H3">
+            <v>27</v>
+          </cell>
+          <cell r="I3">
+            <v>27.85</v>
+          </cell>
+          <cell r="J3">
+            <v>33.26</v>
+          </cell>
+          <cell r="K3">
+            <v>36.4</v>
+          </cell>
+          <cell r="L3">
+            <v>36.15</v>
+          </cell>
+          <cell r="M3">
+            <v>36.520000000000003</v>
+          </cell>
+          <cell r="N3">
+            <v>36.979999999999997</v>
+          </cell>
+          <cell r="O3">
+            <v>37.5</v>
+          </cell>
+          <cell r="P3">
+            <v>37.130000000000003</v>
+          </cell>
+          <cell r="Q3">
+            <v>36.57</v>
+          </cell>
+          <cell r="R3">
+            <v>36.200000000000003</v>
+          </cell>
+          <cell r="S3">
+            <v>38.299999999999997</v>
+          </cell>
+          <cell r="T3">
+            <v>37.549999999999997</v>
+          </cell>
+          <cell r="U3">
+            <v>37</v>
+          </cell>
+          <cell r="V3">
+            <v>35.42</v>
+          </cell>
+          <cell r="W3">
+            <v>36.200000000000003</v>
+          </cell>
+          <cell r="X3">
+            <v>35.01</v>
+          </cell>
+          <cell r="Y3">
+            <v>31.97</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>36.19</v>
+          </cell>
+          <cell r="C4">
+            <v>32.5</v>
+          </cell>
+          <cell r="D4">
+            <v>27.82</v>
+          </cell>
+          <cell r="E4">
+            <v>27.5</v>
+          </cell>
+          <cell r="F4">
+            <v>27.04</v>
+          </cell>
+          <cell r="G4">
+            <v>27.82</v>
+          </cell>
+          <cell r="H4">
+            <v>29.24</v>
+          </cell>
+          <cell r="I4">
+            <v>36.03</v>
+          </cell>
+          <cell r="J4">
+            <v>36.22</v>
+          </cell>
+          <cell r="K4">
+            <v>37</v>
+          </cell>
+          <cell r="L4">
+            <v>36.799999999999997</v>
+          </cell>
+          <cell r="M4">
+            <v>36.799999999999997</v>
+          </cell>
+          <cell r="N4">
+            <v>37.65</v>
+          </cell>
+          <cell r="O4">
+            <v>39.93</v>
+          </cell>
+          <cell r="P4">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="Q4">
+            <v>37.65</v>
+          </cell>
+          <cell r="R4">
+            <v>37.51</v>
+          </cell>
+          <cell r="S4">
+            <v>37.049999999999997</v>
+          </cell>
+          <cell r="T4">
+            <v>36.56</v>
+          </cell>
+          <cell r="U4">
+            <v>36.32</v>
+          </cell>
+          <cell r="V4">
+            <v>36.5</v>
+          </cell>
+          <cell r="W4">
+            <v>37.049999999999997</v>
+          </cell>
+          <cell r="X4">
+            <v>36.72</v>
+          </cell>
+          <cell r="Y4">
+            <v>34.72</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>34.65</v>
+          </cell>
+          <cell r="C5">
+            <v>27.5</v>
+          </cell>
+          <cell r="D5">
+            <v>25.7</v>
+          </cell>
+          <cell r="E5">
+            <v>25.1</v>
+          </cell>
+          <cell r="F5">
+            <v>25.1</v>
+          </cell>
+          <cell r="G5">
+            <v>26.51</v>
+          </cell>
+          <cell r="H5">
+            <v>34.64</v>
+          </cell>
+          <cell r="I5">
+            <v>39.270000000000003</v>
+          </cell>
+          <cell r="J5">
+            <v>38.119999999999997</v>
+          </cell>
+          <cell r="K5">
+            <v>37.68</v>
+          </cell>
+          <cell r="L5">
+            <v>34.950000000000003</v>
+          </cell>
+          <cell r="M5">
+            <v>33.659999999999997</v>
+          </cell>
+          <cell r="N5">
+            <v>34.28</v>
+          </cell>
+          <cell r="O5">
+            <v>35</v>
+          </cell>
+          <cell r="P5">
+            <v>34.65</v>
+          </cell>
+          <cell r="Q5">
+            <v>32.840000000000003</v>
+          </cell>
+          <cell r="R5">
+            <v>34</v>
+          </cell>
+          <cell r="S5">
+            <v>37.409999999999997</v>
+          </cell>
+          <cell r="T5">
+            <v>36.18</v>
+          </cell>
+          <cell r="U5">
+            <v>36.1</v>
+          </cell>
+          <cell r="V5">
+            <v>38.99</v>
+          </cell>
+          <cell r="W5">
+            <v>39</v>
+          </cell>
+          <cell r="X5">
+            <v>38.99</v>
+          </cell>
+          <cell r="Y5">
+            <v>34.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>35.299999999999997</v>
+          </cell>
+          <cell r="C6">
+            <v>30</v>
+          </cell>
+          <cell r="D6">
+            <v>27</v>
+          </cell>
+          <cell r="E6">
+            <v>26.5</v>
+          </cell>
+          <cell r="F6">
+            <v>26.5</v>
+          </cell>
+          <cell r="G6">
+            <v>27.2</v>
+          </cell>
+          <cell r="H6">
+            <v>28.56</v>
+          </cell>
+          <cell r="I6">
+            <v>28.34</v>
+          </cell>
+          <cell r="J6">
+            <v>30.02</v>
+          </cell>
+          <cell r="K6">
+            <v>31.18</v>
+          </cell>
+          <cell r="L6">
+            <v>30.53</v>
+          </cell>
+          <cell r="M6">
+            <v>30.47</v>
+          </cell>
+          <cell r="N6">
+            <v>33.49</v>
+          </cell>
+          <cell r="O6">
+            <v>36.049999999999997</v>
+          </cell>
+          <cell r="P6">
+            <v>35.74</v>
+          </cell>
+          <cell r="Q6">
+            <v>34.49</v>
+          </cell>
+          <cell r="R6">
+            <v>33.99</v>
+          </cell>
+          <cell r="S6">
+            <v>33.49</v>
+          </cell>
+          <cell r="T6">
+            <v>32.24</v>
+          </cell>
+          <cell r="U6">
+            <v>35.01</v>
+          </cell>
+          <cell r="V6">
+            <v>36.049999999999997</v>
+          </cell>
+          <cell r="W6">
+            <v>37</v>
+          </cell>
+          <cell r="X6">
+            <v>37</v>
+          </cell>
+          <cell r="Y6">
+            <v>36</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>6.52</v>
+          </cell>
+          <cell r="C2">
+            <v>10.56</v>
+          </cell>
+          <cell r="D2">
+            <v>5.92</v>
+          </cell>
+          <cell r="E2">
+            <v>6.15</v>
+          </cell>
+          <cell r="F2">
+            <v>6.79</v>
+          </cell>
+          <cell r="G2">
+            <v>6.65</v>
+          </cell>
+          <cell r="H2">
+            <v>10</v>
+          </cell>
+          <cell r="I2">
+            <v>10.19</v>
+          </cell>
+          <cell r="J2">
+            <v>9.76</v>
+          </cell>
+          <cell r="K2">
+            <v>8.0500000000000007</v>
+          </cell>
+          <cell r="L2">
+            <v>8.66</v>
+          </cell>
+          <cell r="M2">
+            <v>10</v>
+          </cell>
+          <cell r="N2">
+            <v>7.8</v>
+          </cell>
+          <cell r="O2">
+            <v>5.82</v>
+          </cell>
+          <cell r="P2">
+            <v>6.56</v>
+          </cell>
+          <cell r="Q2">
+            <v>8.0399999999999991</v>
+          </cell>
+          <cell r="R2">
+            <v>7.63</v>
+          </cell>
+          <cell r="S2">
+            <v>8.42</v>
+          </cell>
+          <cell r="T2">
+            <v>4.66</v>
+          </cell>
+          <cell r="U2">
+            <v>4.32</v>
+          </cell>
+          <cell r="V2">
+            <v>2.81</v>
+          </cell>
+          <cell r="W2">
+            <v>2.81</v>
+          </cell>
+          <cell r="X2">
+            <v>3.33</v>
+          </cell>
+          <cell r="Y2">
+            <v>8.9700000000000006</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>11.27</v>
+          </cell>
+          <cell r="C3">
+            <v>12.24</v>
+          </cell>
+          <cell r="D3">
+            <v>8.3699999999999992</v>
+          </cell>
+          <cell r="E3">
+            <v>8.5399999999999991</v>
+          </cell>
+          <cell r="F3">
+            <v>8.84</v>
+          </cell>
+          <cell r="G3">
+            <v>8.93</v>
+          </cell>
+          <cell r="H3">
+            <v>17.93</v>
+          </cell>
+          <cell r="I3">
+            <v>15.6</v>
+          </cell>
+          <cell r="J3">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="K3">
+            <v>9.6300000000000008</v>
+          </cell>
+          <cell r="L3">
+            <v>7.71</v>
+          </cell>
+          <cell r="M3">
+            <v>7.97</v>
+          </cell>
+          <cell r="N3">
+            <v>9.08</v>
+          </cell>
+          <cell r="O3">
+            <v>7.13</v>
+          </cell>
+          <cell r="P3">
+            <v>7.4</v>
+          </cell>
+          <cell r="Q3">
+            <v>7.84</v>
+          </cell>
+          <cell r="R3">
+            <v>7.6</v>
+          </cell>
+          <cell r="S3">
+            <v>5.7</v>
+          </cell>
+          <cell r="T3">
+            <v>4.8499999999999996</v>
+          </cell>
+          <cell r="U3">
+            <v>4.2300000000000004</v>
+          </cell>
+          <cell r="V3">
+            <v>2.38</v>
+          </cell>
+          <cell r="W3">
+            <v>2.8</v>
+          </cell>
+          <cell r="X3">
+            <v>2.09</v>
+          </cell>
+          <cell r="Y3">
+            <v>12.33</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.88</v>
+          </cell>
+          <cell r="C4">
+            <v>8.98</v>
+          </cell>
+          <cell r="D4">
+            <v>7.64</v>
+          </cell>
+          <cell r="E4">
+            <v>7.72</v>
+          </cell>
+          <cell r="F4">
+            <v>7.64</v>
+          </cell>
+          <cell r="G4">
+            <v>7.72</v>
+          </cell>
+          <cell r="H4">
+            <v>8.23</v>
+          </cell>
+          <cell r="I4">
+            <v>7.19</v>
+          </cell>
+          <cell r="J4">
+            <v>6.72</v>
+          </cell>
+          <cell r="K4">
+            <v>6.56</v>
+          </cell>
+          <cell r="L4">
+            <v>5.75</v>
+          </cell>
+          <cell r="M4">
+            <v>4.9400000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="O4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="P4">
+            <v>6.11</v>
+          </cell>
+          <cell r="Q4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="R4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>4.66</v>
+          </cell>
+          <cell r="T4">
+            <v>5.58</v>
+          </cell>
+          <cell r="U4">
+            <v>5.56</v>
+          </cell>
+          <cell r="V4">
+            <v>5.09</v>
+          </cell>
+          <cell r="W4">
+            <v>4.33</v>
+          </cell>
+          <cell r="X4">
+            <v>4.62</v>
+          </cell>
+          <cell r="Y4">
+            <v>6.95</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>11.09</v>
+          </cell>
+          <cell r="C5">
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="D5">
+            <v>10.62</v>
+          </cell>
+          <cell r="E5">
+            <v>10.62</v>
+          </cell>
+          <cell r="F5">
+            <v>10.62</v>
+          </cell>
+          <cell r="G5">
+            <v>10.62</v>
+          </cell>
+          <cell r="H5">
+            <v>10.42</v>
+          </cell>
+          <cell r="I5">
+            <v>6.72</v>
+          </cell>
+          <cell r="J5">
+            <v>6.96</v>
+          </cell>
+          <cell r="K5">
+            <v>7.46</v>
+          </cell>
+          <cell r="L5">
+            <v>10.48</v>
+          </cell>
+          <cell r="M5">
+            <v>9.4</v>
+          </cell>
+          <cell r="N5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="O5">
+            <v>8.6300000000000008</v>
+          </cell>
+          <cell r="P5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="Q5">
+            <v>10.89</v>
+          </cell>
+          <cell r="R5">
+            <v>9.8699999999999992</v>
+          </cell>
+          <cell r="S5">
+            <v>8.06</v>
+          </cell>
+          <cell r="T5">
+            <v>8.06</v>
+          </cell>
+          <cell r="U5">
+            <v>8.75</v>
+          </cell>
+          <cell r="V5">
+            <v>6.17</v>
+          </cell>
+          <cell r="W5">
+            <v>6.6</v>
+          </cell>
+          <cell r="X5">
+            <v>5.72</v>
+          </cell>
+          <cell r="Y5">
+            <v>10.26</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>7.58</v>
+          </cell>
+          <cell r="C6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="D6">
+            <v>6.33</v>
+          </cell>
+          <cell r="E6">
+            <v>6.8</v>
+          </cell>
+          <cell r="F6">
+            <v>6.8</v>
+          </cell>
+          <cell r="G6">
+            <v>6.25</v>
+          </cell>
+          <cell r="H6">
+            <v>7.77</v>
+          </cell>
+          <cell r="I6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="J6">
+            <v>9.2200000000000006</v>
+          </cell>
+          <cell r="K6">
+            <v>8.6199999999999992</v>
+          </cell>
+          <cell r="L6">
+            <v>7.09</v>
+          </cell>
+          <cell r="M6">
+            <v>6.43</v>
+          </cell>
+          <cell r="N6">
+            <v>5.85</v>
+          </cell>
+          <cell r="O6">
+            <v>6.44</v>
+          </cell>
+          <cell r="P6">
+            <v>6.79</v>
+          </cell>
+          <cell r="Q6">
+            <v>8.14</v>
+          </cell>
+          <cell r="R6">
+            <v>8.51</v>
+          </cell>
+          <cell r="S6">
+            <v>9.17</v>
+          </cell>
+          <cell r="T6">
+            <v>8.7899999999999991</v>
+          </cell>
+          <cell r="U6">
+            <v>7.6</v>
+          </cell>
+          <cell r="V6">
+            <v>6.29</v>
+          </cell>
+          <cell r="W6">
+            <v>6.62</v>
+          </cell>
+          <cell r="X6">
+            <v>6.53</v>
+          </cell>
+          <cell r="Y6">
+            <v>7.99</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>36.4</v>
+          </cell>
+          <cell r="C2">
+            <v>36.4</v>
+          </cell>
+          <cell r="D2">
+            <v>35.69</v>
+          </cell>
+          <cell r="E2">
+            <v>35.69</v>
+          </cell>
+          <cell r="F2">
+            <v>35.69</v>
+          </cell>
+          <cell r="G2">
+            <v>35.69</v>
+          </cell>
+          <cell r="H2">
+            <v>35.69</v>
+          </cell>
+          <cell r="I2">
+            <v>47.22</v>
+          </cell>
+          <cell r="J2">
+            <v>36.4</v>
+          </cell>
+          <cell r="K2">
+            <v>36.4</v>
+          </cell>
+          <cell r="L2">
+            <v>47.22</v>
+          </cell>
+          <cell r="M2">
+            <v>47.22</v>
+          </cell>
+          <cell r="N2">
+            <v>42</v>
+          </cell>
+          <cell r="O2">
+            <v>38</v>
+          </cell>
+          <cell r="P2">
+            <v>38</v>
+          </cell>
+          <cell r="Q2">
+            <v>47.22</v>
+          </cell>
+          <cell r="R2">
+            <v>47.22</v>
+          </cell>
+          <cell r="S2">
+            <v>47.22</v>
+          </cell>
+          <cell r="T2">
+            <v>47.22</v>
+          </cell>
+          <cell r="U2">
+            <v>47.22</v>
+          </cell>
+          <cell r="V2">
+            <v>47.22</v>
+          </cell>
+          <cell r="W2">
+            <v>47.22</v>
+          </cell>
+          <cell r="X2">
+            <v>47.22</v>
+          </cell>
+          <cell r="Y2">
+            <v>47.22</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>47.22</v>
+          </cell>
+          <cell r="C3">
+            <v>47.22</v>
+          </cell>
+          <cell r="D3">
+            <v>47.22</v>
+          </cell>
+          <cell r="E3">
+            <v>36</v>
+          </cell>
+          <cell r="F3">
+            <v>35.69</v>
+          </cell>
+          <cell r="G3">
+            <v>35.69</v>
+          </cell>
+          <cell r="H3">
+            <v>35.69</v>
+          </cell>
+          <cell r="I3">
+            <v>47.22</v>
+          </cell>
+          <cell r="J3">
+            <v>47.22</v>
+          </cell>
+          <cell r="K3">
+            <v>47.22</v>
+          </cell>
+          <cell r="L3">
+            <v>47.22</v>
+          </cell>
+          <cell r="M3">
+            <v>47.22</v>
+          </cell>
+          <cell r="N3">
+            <v>47.22</v>
+          </cell>
+          <cell r="O3">
+            <v>47.22</v>
+          </cell>
+          <cell r="P3">
+            <v>47.22</v>
+          </cell>
+          <cell r="Q3">
+            <v>47.22</v>
+          </cell>
+          <cell r="R3">
+            <v>47.22</v>
+          </cell>
+          <cell r="S3">
+            <v>47.22</v>
+          </cell>
+          <cell r="T3">
+            <v>47.22</v>
+          </cell>
+          <cell r="U3">
+            <v>47.22</v>
+          </cell>
+          <cell r="V3">
+            <v>47.22</v>
+          </cell>
+          <cell r="W3">
+            <v>47.22</v>
+          </cell>
+          <cell r="X3">
+            <v>36</v>
+          </cell>
+          <cell r="Y3">
+            <v>47.22</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>47.22</v>
+          </cell>
+          <cell r="C4">
+            <v>37.4</v>
+          </cell>
+          <cell r="D4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="E4">
+            <v>37.4</v>
+          </cell>
+          <cell r="F4">
+            <v>35.69</v>
+          </cell>
+          <cell r="G4">
+            <v>37.4</v>
+          </cell>
+          <cell r="H4">
+            <v>37.4</v>
+          </cell>
+          <cell r="I4">
+            <v>37.4</v>
+          </cell>
+          <cell r="J4">
+            <v>37.4</v>
+          </cell>
+          <cell r="K4">
+            <v>38</v>
+          </cell>
+          <cell r="L4">
+            <v>38</v>
+          </cell>
+          <cell r="M4">
+            <v>47.22</v>
+          </cell>
+          <cell r="N4">
+            <v>47.22</v>
+          </cell>
+          <cell r="O4">
+            <v>47.22</v>
+          </cell>
+          <cell r="P4">
+            <v>47.22</v>
+          </cell>
+          <cell r="Q4">
+            <v>47.22</v>
+          </cell>
+          <cell r="R4">
+            <v>47.22</v>
+          </cell>
+          <cell r="S4">
+            <v>47.22</v>
+          </cell>
+          <cell r="T4">
+            <v>47.22</v>
+          </cell>
+          <cell r="U4">
+            <v>47.22</v>
+          </cell>
+          <cell r="V4">
+            <v>47.22</v>
+          </cell>
+          <cell r="W4">
+            <v>95</v>
+          </cell>
+          <cell r="X4">
+            <v>47.22</v>
+          </cell>
+          <cell r="Y4">
+            <v>47.22</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>37</v>
+          </cell>
+          <cell r="C5">
+            <v>35.69</v>
+          </cell>
+          <cell r="D5">
+            <v>35.69</v>
+          </cell>
+          <cell r="E5">
+            <v>35.69</v>
+          </cell>
+          <cell r="F5">
+            <v>35.69</v>
+          </cell>
+          <cell r="G5">
+            <v>35.69</v>
+          </cell>
+          <cell r="H5">
+            <v>47.22</v>
+          </cell>
+          <cell r="I5">
+            <v>47.22</v>
+          </cell>
+          <cell r="J5">
+            <v>47.22</v>
+          </cell>
+          <cell r="K5">
+            <v>47.22</v>
+          </cell>
+          <cell r="L5">
+            <v>36</v>
+          </cell>
+          <cell r="M5">
+            <v>38.4</v>
+          </cell>
+          <cell r="N5">
+            <v>47.22</v>
+          </cell>
+          <cell r="O5">
+            <v>47.22</v>
+          </cell>
+          <cell r="P5">
+            <v>47.22</v>
+          </cell>
+          <cell r="Q5">
+            <v>47.22</v>
+          </cell>
+          <cell r="R5">
+            <v>47.22</v>
+          </cell>
+          <cell r="S5">
+            <v>47.22</v>
+          </cell>
+          <cell r="T5">
+            <v>47.22</v>
+          </cell>
+          <cell r="U5">
+            <v>47.22</v>
+          </cell>
+          <cell r="V5">
+            <v>47.12</v>
+          </cell>
+          <cell r="W5">
+            <v>47.22</v>
+          </cell>
+          <cell r="X5">
+            <v>47.22</v>
+          </cell>
+          <cell r="Y5">
+            <v>47.043333333333329</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>46.66</v>
+          </cell>
+          <cell r="C6">
+            <v>46.69</v>
+          </cell>
+          <cell r="D6">
+            <v>37.4</v>
+          </cell>
+          <cell r="E6">
+            <v>37.4</v>
+          </cell>
+          <cell r="F6">
+            <v>37.4</v>
+          </cell>
+          <cell r="G6">
+            <v>37.4</v>
+          </cell>
+          <cell r="H6">
+            <v>47.22</v>
+          </cell>
+          <cell r="I6">
+            <v>64.64</v>
+          </cell>
+          <cell r="J6">
+            <v>37.4</v>
+          </cell>
+          <cell r="K6">
+            <v>37.4</v>
+          </cell>
+          <cell r="L6">
+            <v>36</v>
+          </cell>
+          <cell r="M6">
+            <v>37.4</v>
+          </cell>
+          <cell r="N6">
+            <v>46.69</v>
+          </cell>
+          <cell r="O6">
+            <v>46.69</v>
+          </cell>
+          <cell r="P6">
+            <v>46.69</v>
+          </cell>
+          <cell r="Q6">
+            <v>46.69</v>
+          </cell>
+          <cell r="R6">
+            <v>46.69</v>
+          </cell>
+          <cell r="S6">
+            <v>46.69</v>
+          </cell>
+          <cell r="T6">
+            <v>46.69</v>
+          </cell>
+          <cell r="U6">
+            <v>46.69</v>
+          </cell>
+          <cell r="V6">
+            <v>46.69</v>
+          </cell>
+          <cell r="W6">
+            <v>46.58</v>
+          </cell>
+          <cell r="X6">
+            <v>46.56</v>
+          </cell>
+          <cell r="Y6">
+            <v>46.69</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
+            <v>27.98</v>
+          </cell>
+          <cell r="C2">
+            <v>22.02</v>
+          </cell>
+          <cell r="D2">
+            <v>22.02</v>
+          </cell>
+          <cell r="E2">
+            <v>39.4</v>
+          </cell>
+          <cell r="F2">
+            <v>22.02</v>
+          </cell>
+          <cell r="G2">
+            <v>22.02</v>
+          </cell>
+          <cell r="H2">
+            <v>24.515000000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>24.7575</v>
+          </cell>
+          <cell r="J2">
+            <v>27.98</v>
+          </cell>
+          <cell r="K2">
+            <v>20.36</v>
+          </cell>
+          <cell r="L2">
+            <v>52.5</v>
+          </cell>
+          <cell r="M2">
+            <v>60</v>
+          </cell>
+          <cell r="N2">
+            <v>29.01</v>
+          </cell>
+          <cell r="O2">
+            <v>29.02</v>
+          </cell>
+          <cell r="P2">
+            <v>29.02</v>
+          </cell>
+          <cell r="Q2">
+            <v>50.4</v>
+          </cell>
+          <cell r="R2">
+            <v>50.4</v>
+          </cell>
+          <cell r="S2">
+            <v>50.4</v>
+          </cell>
+          <cell r="T2">
+            <v>50.4</v>
+          </cell>
+          <cell r="U2">
+            <v>50.4</v>
+          </cell>
+          <cell r="V2">
+            <v>30</v>
+          </cell>
+          <cell r="W2">
+            <v>50.4</v>
+          </cell>
+          <cell r="X2">
+            <v>27.98</v>
+          </cell>
+          <cell r="Y2">
+            <v>22.02</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>50.4</v>
+          </cell>
+          <cell r="C3">
+            <v>26</v>
+          </cell>
+          <cell r="D3">
+            <v>26</v>
+          </cell>
+          <cell r="E3">
+            <v>27.74</v>
+          </cell>
+          <cell r="F3">
+            <v>33.606666666666662</v>
+          </cell>
+          <cell r="G3">
+            <v>30.71</v>
+          </cell>
+          <cell r="H3">
+            <v>24.515000000000001</v>
+          </cell>
+          <cell r="I3">
+            <v>22.02</v>
+          </cell>
+          <cell r="J3">
+            <v>24.7575</v>
+          </cell>
+          <cell r="K3">
+            <v>27.98</v>
+          </cell>
+          <cell r="L3">
+            <v>52.5</v>
+          </cell>
+          <cell r="M3">
+            <v>52.5</v>
+          </cell>
+          <cell r="N3">
+            <v>52.5</v>
+          </cell>
+          <cell r="O3">
+            <v>50.4</v>
+          </cell>
+          <cell r="P3">
+            <v>50.4</v>
+          </cell>
+          <cell r="Q3">
+            <v>50.4</v>
+          </cell>
+          <cell r="R3">
+            <v>50.4</v>
+          </cell>
+          <cell r="S3">
+            <v>29.98</v>
+          </cell>
+          <cell r="T3">
+            <v>27.98</v>
+          </cell>
+          <cell r="U3">
+            <v>27.98</v>
+          </cell>
+          <cell r="V3">
+            <v>50.4</v>
+          </cell>
+          <cell r="W3">
+            <v>28</v>
+          </cell>
+          <cell r="X3">
+            <v>50.4</v>
+          </cell>
+          <cell r="Y3">
+            <v>50.4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>50.4</v>
+          </cell>
+          <cell r="C4">
+            <v>43.2</v>
+          </cell>
+          <cell r="D4">
+            <v>43.2</v>
+          </cell>
+          <cell r="E4">
+            <v>39.4</v>
+          </cell>
+          <cell r="F4">
+            <v>39.4</v>
+          </cell>
+          <cell r="G4">
+            <v>39.4</v>
+          </cell>
+          <cell r="H4">
+            <v>27.98</v>
+          </cell>
+          <cell r="I4">
+            <v>22.02</v>
+          </cell>
+          <cell r="J4">
+            <v>22.02</v>
+          </cell>
+          <cell r="K4">
+            <v>27.98</v>
+          </cell>
+          <cell r="L4">
+            <v>52.5</v>
+          </cell>
+          <cell r="M4">
+            <v>27.98</v>
+          </cell>
+          <cell r="N4">
+            <v>52.5</v>
+          </cell>
+          <cell r="O4">
+            <v>50.4</v>
+          </cell>
+          <cell r="P4">
+            <v>50.4</v>
+          </cell>
+          <cell r="Q4">
+            <v>27.98</v>
+          </cell>
+          <cell r="R4">
+            <v>50.4</v>
+          </cell>
+          <cell r="S4">
+            <v>50.4</v>
+          </cell>
+          <cell r="T4">
+            <v>50.4</v>
+          </cell>
+          <cell r="U4">
+            <v>50.4</v>
+          </cell>
+          <cell r="V4">
+            <v>50.4</v>
+          </cell>
+          <cell r="W4">
+            <v>50.4</v>
+          </cell>
+          <cell r="X4">
+            <v>50.4</v>
+          </cell>
+          <cell r="Y4">
+            <v>50.4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>15.6</v>
+          </cell>
+          <cell r="C5">
+            <v>43.2</v>
+          </cell>
+          <cell r="D5">
+            <v>37.466666666666669</v>
+          </cell>
+          <cell r="E5">
+            <v>33.57</v>
+          </cell>
+          <cell r="F5">
+            <v>39.4</v>
+          </cell>
+          <cell r="G5">
+            <v>30.71</v>
+          </cell>
+          <cell r="H5">
+            <v>24.515000000000001</v>
+          </cell>
+          <cell r="I5">
+            <v>27.98</v>
+          </cell>
+          <cell r="J5">
+            <v>27.98</v>
+          </cell>
+          <cell r="K5">
+            <v>24.89</v>
+          </cell>
+          <cell r="L5">
+            <v>26</v>
+          </cell>
+          <cell r="M5">
+            <v>35.503333333333337</v>
+          </cell>
+          <cell r="N5">
+            <v>52.5</v>
+          </cell>
+          <cell r="O5">
+            <v>50.4</v>
+          </cell>
+          <cell r="P5">
+            <v>50.4</v>
+          </cell>
+          <cell r="Q5">
+            <v>50.4</v>
+          </cell>
+          <cell r="R5">
+            <v>50.4</v>
+          </cell>
+          <cell r="S5">
+            <v>50.4</v>
+          </cell>
+          <cell r="T5">
+            <v>27.98</v>
+          </cell>
+          <cell r="U5">
+            <v>50.4</v>
+          </cell>
+          <cell r="V5">
+            <v>50.4</v>
+          </cell>
+          <cell r="W5">
+            <v>27.98</v>
+          </cell>
+          <cell r="X5">
+            <v>22.02</v>
+          </cell>
+          <cell r="Y5">
+            <v>50.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>50.4</v>
+          </cell>
+          <cell r="C6">
+            <v>18.71</v>
+          </cell>
+          <cell r="D6">
+            <v>43.2</v>
+          </cell>
+          <cell r="E6">
+            <v>33.57</v>
+          </cell>
+          <cell r="F6">
+            <v>33.606666666666662</v>
+          </cell>
+          <cell r="G6">
+            <v>30.71</v>
+          </cell>
+          <cell r="H6">
+            <v>21.05</v>
+          </cell>
+          <cell r="I6">
+            <v>21.05</v>
+          </cell>
+          <cell r="J6">
+            <v>21.05</v>
+          </cell>
+          <cell r="K6">
+            <v>18.71</v>
+          </cell>
+          <cell r="L6">
+            <v>18.71</v>
+          </cell>
+          <cell r="M6">
+            <v>26.03</v>
+          </cell>
+          <cell r="N6">
+            <v>52.5</v>
+          </cell>
+          <cell r="O6">
+            <v>50.4</v>
+          </cell>
+          <cell r="P6">
+            <v>50.4</v>
+          </cell>
+          <cell r="Q6">
+            <v>50.4</v>
+          </cell>
+          <cell r="R6">
+            <v>50.4</v>
+          </cell>
+          <cell r="S6">
+            <v>50.4</v>
+          </cell>
+          <cell r="T6">
+            <v>50.4</v>
+          </cell>
+          <cell r="U6">
+            <v>26.03</v>
+          </cell>
+          <cell r="V6">
+            <v>50.4</v>
+          </cell>
+          <cell r="W6">
+            <v>50.4</v>
+          </cell>
+          <cell r="X6">
+            <v>26.03</v>
+          </cell>
+          <cell r="Y6">
+            <v>50.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1903,15 +3408,15 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1925,21 +3430,21 @@
         <v>0.2</v>
       </c>
       <c r="E1" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F1" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G1" s="1">
         <v>0.1</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2020</v>
       </c>
     </row>
@@ -1954,12 +3459,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +3541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2137,7 +3642,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2238,7 +3743,7 @@
         <v>31.17</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2339,7 +3844,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2440,7 +3945,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2552,12 +4057,12 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y6"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2634,7 +4139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2735,7 +4240,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2836,7 +4341,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2937,7 +4442,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3038,7 +4543,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3139,7 +4644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3175,12 +4680,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +4762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3358,7 +4863,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3459,7 +4964,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3560,7 +5065,7 @@
         <v>58.58</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3661,7 +5166,7 @@
         <v>46.97</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3772,12 +5277,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3854,7 +5359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3955,7 +5460,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4056,7 +5561,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4157,7 +5662,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4258,7 +5763,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4357,6 +5862,2421 @@
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>29.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51365E97-6E69-401A-9DFD-893A2C3FF085}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.549999999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.69</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.22</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.18</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.7</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.63</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.26</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.77</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.99</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.99</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.53</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.57</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.77</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.36</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.11</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.92</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.47</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.79</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.16</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.77</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.85</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.26</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.15</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.520000000000003</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.979999999999997</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.5</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.130000000000003</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.57</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.42</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.01</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.19</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.5</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.04</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.24</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.03</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.22</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.65</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39.93</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.65</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.51</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.56</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.32</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.5</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.72</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.65</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.7</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.1</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.51</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.64</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39.270000000000003</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.119999999999997</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.68</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.659999999999997</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.28</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.65</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.840000000000003</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.18</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.1</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.99</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.99</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.5</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.5</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.56</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.34</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.02</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.18</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.53</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.47</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.49</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.74</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.49</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.99</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.49</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.24</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.01</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB008B8-ED0A-4A84-975C-A342158CCFB6}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.52</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.56</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.92</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.15</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.79</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.65</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.19</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.76</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.66</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.8</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.82</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.56</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.63</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.42</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.66</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.32</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.81</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.81</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>3.33</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.27</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>12.24</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.84</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.93</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>17.93</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>15.6</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.71</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.97</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.08</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.13</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.4</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.84</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.6</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.7</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.38</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.8</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.09</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.88</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.98</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.64</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.72</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.64</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.72</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.23</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.19</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.72</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.56</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.75</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.11</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.66</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.58</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.56</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.09</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.33</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.62</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.09</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.62</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.62</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.62</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.62</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.42</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.72</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.96</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.46</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.48</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.4</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.89</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.06</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.06</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.75</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.17</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.6</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.72</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.58</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.33</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.8</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.8</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.25</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.77</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.09</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.43</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.85</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.44</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.79</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.14</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.51</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.17</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.6</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.29</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.62</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.53</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3DC1DB-E732-4F79-89B1-5F652B3EE8D7}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>42</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>69.040000000000006</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>95</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>38.4</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.12</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.043333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.66</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>47.22</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>64.64</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>37.4</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.58</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.56</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06EB1E-49A0-417F-AD8B-905096775CB2}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.7575</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>20.36</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>29.01</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>29.02</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>29.02</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.7575</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>29.98</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>28</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.2</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>15.6</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.2</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>37.466666666666669</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.57</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.4</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.89</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>35.503333333333337</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.98</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.02</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>18.71</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.2</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.57</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>21.05</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>21.05</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>21.05</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>18.71</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>18.71</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26.03</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>52.5</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26.03</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>26.03</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>50.4</v>
       </c>
     </row>
   </sheetData>
